--- a/data/dividends_info_20260125.xlsx
+++ b/data/dividends_info_20260125.xlsx
@@ -880,7 +880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1248,7 +1248,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOGES GROUP S.p.A.</t>
+          <t>CONVERGENZE S.p.A. SOCIETA' BENEFIT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CONVERGENZE S.p.A. SOCIETA' BENEFIT</t>
+          <t>SOGES GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>Anima Holding S.p.A.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Racing Force S.p.A.</t>
+          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1411,14 +1411,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Anima Holding S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1435,7 +1435,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
+          <t>Racing Force S.p.A.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>PIQUADRO S.p.A.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1462,14 +1462,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1503,7 +1503,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1513,14 +1513,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1537,7 +1537,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PIQUADRO S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1547,14 +1547,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1564,14 +1564,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>Ubaldi Costruzioni S.p.A.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1717,14 +1717,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ferrari N.V.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1734,14 +1734,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ubaldi Costruzioni S.p.A.</t>
+          <t>Ferrari N.V.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DEA CAPITAL REAL ESTATE SGR S.p.A.</t>
+          <t>ELICA S.p.A.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ELICA S.p.A.</t>
+          <t>First Capital S.p.A.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>DEA CAPITAL REAL ESTATE SGR S.p.A.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1938,14 +1938,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual Report</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>First Capital S.p.A.</t>
+          <t>Abitare In S.p.A.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1989,14 +1989,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2006,14 +2006,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Abitare In S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2023,14 +2023,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Antares Vision S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2040,14 +2040,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
+          <t>Riba Mundo Tecnologia S.A.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2057,14 +2057,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Riba Mundo Tecnologia S.A.</t>
+          <t>Vimi Fasteners S.p.A.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2081,7 +2081,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>Antares Vision S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2091,14 +2091,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Vimi Fasteners S.p.A.</t>
+          <t>INTERPUMP GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ELES S.p.A.</t>
+          <t>ESAUTOMOTION S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2234,7 +2234,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ESAUTOMOTION S.p.A.</t>
+          <t>ELES S.p.A.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2262,108 +2262,6 @@
       <c r="C81" t="inlineStr">
         <is>
           <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>ENEL S.p.A.</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>MEDIOLANUM GESTIONE FONDI SGR p.A.</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>CASTELLO SGR S.p.A.</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Leonardo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>SAIPEM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>TELECOM ITALIA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -2396,100 +2294,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CASTELLO SGR S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Leonardo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SAIPEM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TELECOM ITALIA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>